--- a/JOGOS/2023-07-29_over2_5_ft_futpython.xlsx
+++ b/JOGOS/2023-07-29_over2_5_ft_futpython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -46,46 +46,175 @@
     <t>FT_Odd_BTTS_Yes</t>
   </si>
   <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>EUROPE - EUROPA CONFERENCE LEAGUE</t>
-  </si>
-  <si>
-    <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-  </si>
-  <si>
-    <t>AUSTRIA - BUNDESLIGA</t>
-  </si>
-  <si>
-    <t>APOEL (Cyp)</t>
-  </si>
-  <si>
-    <t>Schaffhausen</t>
-  </si>
-  <si>
-    <t>LASK</t>
-  </si>
-  <si>
-    <t>Vojvodina (Srb)</t>
-  </si>
-  <si>
-    <t>Thun</t>
-  </si>
-  <si>
-    <t>Rapid Vienna</t>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>JAPAN - J2 LEAGUE</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA - K LEAGUE 2</t>
+  </si>
+  <si>
+    <t>GERMANY - 2. BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>CHINA - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>SWEDEN - SUPERETTAN</t>
+  </si>
+  <si>
+    <t>SWITZERLAND - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>PARAGUAY - PRIMERA DIVISION</t>
+  </si>
+  <si>
+    <t>COLOMBIA - PRIMERA A</t>
+  </si>
+  <si>
+    <t>USA - USL CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>Tochigi SC</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
+    <t>Oita Trinita</t>
+  </si>
+  <si>
+    <t>Seongnam</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>VfL Osnabruck</t>
+  </si>
+  <si>
+    <t>Wehen</t>
+  </si>
+  <si>
+    <t>Chengdu Rongcheng</t>
+  </si>
+  <si>
+    <t>Oster</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
+    <t>Dusseldorf</t>
+  </si>
+  <si>
+    <t>Sportivo Trinidense</t>
+  </si>
+  <si>
+    <t>Deportes Tolima</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Orange County SC</t>
+  </si>
+  <si>
+    <t>Kofu</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
+  </si>
+  <si>
+    <t>Montedio Yamagata</t>
+  </si>
+  <si>
+    <t>Jeonnam</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Zhejiang Professional</t>
+  </si>
+  <si>
+    <t>Jonkoping</t>
+  </si>
+  <si>
+    <t>Grasshoppers</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Hertha Berlin</t>
+  </si>
+  <si>
+    <t>Olimpia Asuncion</t>
+  </si>
+  <si>
+    <t>Aguilas</t>
+  </si>
+  <si>
+    <t>FC Tulsa</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
   </si>
 </sst>
 </file>
@@ -443,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,125 +618,699 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="J2">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>2.15</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>3.56</v>
-      </c>
-      <c r="H3">
-        <v>3.92</v>
-      </c>
-      <c r="I3">
-        <v>1.92</v>
-      </c>
       <c r="J3">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="L3">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H4">
         <v>3.5</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1.85</v>
+      </c>
+      <c r="K4">
+        <v>1.67</v>
+      </c>
+      <c r="L4">
+        <v>1.85</v>
+      </c>
+      <c r="M4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>2.45</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>2.55</v>
+      </c>
+      <c r="J5">
+        <v>1.85</v>
+      </c>
+      <c r="K5">
+        <v>1.73</v>
+      </c>
+      <c r="L5">
+        <v>1.85</v>
+      </c>
+      <c r="M5">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>2.1</v>
+      </c>
+      <c r="H6">
+        <v>3.6</v>
+      </c>
+      <c r="I6">
+        <v>3.3</v>
+      </c>
+      <c r="J6">
+        <v>1.62</v>
+      </c>
+      <c r="K6">
+        <v>1.53</v>
+      </c>
+      <c r="L6">
+        <v>1.62</v>
+      </c>
+      <c r="M6">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>2.8</v>
+      </c>
+      <c r="H7">
         <v>3.75</v>
       </c>
-      <c r="J4">
+      <c r="I7">
+        <v>2.3</v>
+      </c>
+      <c r="J7">
+        <v>1.62</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>1.62</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>2.88</v>
+      </c>
+      <c r="H8">
+        <v>3.75</v>
+      </c>
+      <c r="I8">
+        <v>2.25</v>
+      </c>
+      <c r="J8">
+        <v>1.62</v>
+      </c>
+      <c r="K8">
+        <v>1.53</v>
+      </c>
+      <c r="L8">
+        <v>1.62</v>
+      </c>
+      <c r="M8">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>1.7</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4.5</v>
+      </c>
+      <c r="J9">
+        <v>1.85</v>
+      </c>
+      <c r="K9">
+        <v>1.8</v>
+      </c>
+      <c r="L9">
+        <v>1.85</v>
+      </c>
+      <c r="M9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <v>4.2</v>
+      </c>
+      <c r="I10">
+        <v>5.5</v>
+      </c>
+      <c r="J10">
         <v>1.67</v>
       </c>
-      <c r="K4">
-        <v>1.57</v>
-      </c>
-      <c r="L4">
+      <c r="K10">
+        <v>1.8</v>
+      </c>
+      <c r="L10">
         <v>1.67</v>
       </c>
-      <c r="M4">
-        <v>1.57</v>
+      <c r="M10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3.75</v>
+      </c>
+      <c r="I11">
+        <v>3.5</v>
+      </c>
+      <c r="J11">
+        <v>1.7</v>
+      </c>
+      <c r="K11">
+        <v>1.62</v>
+      </c>
+      <c r="L11">
+        <v>1.7</v>
+      </c>
+      <c r="M11">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>1.85</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3.8</v>
+      </c>
+      <c r="J12">
+        <v>1.67</v>
+      </c>
+      <c r="K12">
+        <v>1.62</v>
+      </c>
+      <c r="L12">
+        <v>1.67</v>
+      </c>
+      <c r="M12">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>2.3</v>
+      </c>
+      <c r="H13">
+        <v>3.6</v>
+      </c>
+      <c r="I13">
+        <v>2.88</v>
+      </c>
+      <c r="J13">
+        <v>1.7</v>
+      </c>
+      <c r="K13">
+        <v>1.62</v>
+      </c>
+      <c r="L13">
+        <v>1.7</v>
+      </c>
+      <c r="M13">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14">
+        <v>3.25</v>
+      </c>
+      <c r="H14">
+        <v>3.5</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1.7</v>
+      </c>
+      <c r="K14">
+        <v>1.62</v>
+      </c>
+      <c r="L14">
+        <v>1.7</v>
+      </c>
+      <c r="M14">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3.4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2.05</v>
+      </c>
+      <c r="K15">
+        <v>1.83</v>
+      </c>
+      <c r="L15">
+        <v>2.05</v>
+      </c>
+      <c r="M15">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>1.42</v>
+      </c>
+      <c r="H16">
+        <v>4.45</v>
+      </c>
+      <c r="I16">
+        <v>6.63</v>
+      </c>
+      <c r="J16">
+        <v>1.7</v>
+      </c>
+      <c r="K16">
+        <v>1.83</v>
+      </c>
+      <c r="L16">
+        <v>1.7</v>
+      </c>
+      <c r="M16">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>1.4</v>
+      </c>
+      <c r="H17">
+        <v>4.6</v>
+      </c>
+      <c r="I17">
+        <v>6.77</v>
+      </c>
+      <c r="J17">
+        <v>1.63</v>
+      </c>
+      <c r="K17">
+        <v>1.79</v>
+      </c>
+      <c r="L17">
+        <v>1.63</v>
+      </c>
+      <c r="M17">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3.48</v>
+      </c>
+      <c r="I18">
+        <v>3.42</v>
+      </c>
+      <c r="J18">
+        <v>1.83</v>
+      </c>
+      <c r="K18">
+        <v>1.66</v>
+      </c>
+      <c r="L18">
+        <v>1.83</v>
+      </c>
+      <c r="M18">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
